--- a/WebsiteCreator/spreadsheets/ME-S1.xlsx
+++ b/WebsiteCreator/spreadsheets/ME-S1.xlsx
@@ -1,26 +1,395 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/491e2628f664332b/Documents_Charl/Computer_Technical/Programming_GitHub/AustralianSchoolMaths/WebsiteCreator/spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="566" documentId="11_F25DC773A252ABDACC10483119D84B8A5ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C2763DB-84C1-4939-8119-62E259471531}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TableOfContents" sheetId="1" r:id="rId1"/>
+    <sheet name="BernoullivsBinomial" sheetId="2" r:id="rId2"/>
+    <sheet name="BinomialProbability" sheetId="4" r:id="rId3"/>
+    <sheet name="BinomialHistogram" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="NumberOfSuccesses" localSheetId="3">_xlfn.ANCHORARRAY(BinomialHistogram!$B$16)</definedName>
+    <definedName name="Probability" localSheetId="3">_xlfn.ANCHORARRAY(BinomialHistogram!$C$16)</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+  <si>
+    <t>Table of contents</t>
+  </si>
+  <si>
+    <t>Bernoulli</t>
+  </si>
+  <si>
+    <t>Binomial</t>
+  </si>
+  <si>
+    <t>Random variable</t>
+  </si>
+  <si>
+    <t>Has 2 outcomes , 1 for success and 0 for failuire</t>
+  </si>
+  <si>
+    <t>Number of success in n independent Bernoulli trials</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>A discrete distribution for a Bernoulli random variable</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>p(1-p)</t>
+  </si>
+  <si>
+    <t>Bernoulli trial</t>
+  </si>
+  <si>
+    <t>An expirement with 2 posssible outcome: success and failuire</t>
+  </si>
+  <si>
+    <t>Sample proportion</t>
+  </si>
+  <si>
+    <t>The fraction of successes in n independent Bernoulli trials</t>
+  </si>
+  <si>
+    <t>Random variable example</t>
+  </si>
+  <si>
+    <t>Distribution example</t>
+  </si>
+  <si>
+    <t>Rolling a 6 on a dice</t>
+  </si>
+  <si>
+    <t>Distribution for rolling a 6 on a dice
+(defined as a piecewise function)
+                     1/6  for x = 1
+P(X=x) =      
+                     5/6  for x  =0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability </t>
+  </si>
+  <si>
+    <t>success: p
+failuire: q= 1-p</t>
+  </si>
+  <si>
+    <t>A discrete probability distribution of the number of successes in a sequence of independent Bernoulli trrials</t>
+  </si>
+  <si>
+    <t>Number of times a 6 lands face up if a dice is rolled 10 times</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given p as the probability of success in a single Bernoulli trial, then the probability of r successes in n independent trials is:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P(X=x) = </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1-p)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n-r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probability of rolling 3 sixes from 5 rolls of a dice:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1/6)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x (5/6)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+=125/3888</t>
+    </r>
+  </si>
+  <si>
+    <t>Probabilities in a binomial distribution</t>
+  </si>
+  <si>
+    <t>Option 1</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>Option 3</t>
+  </si>
+  <si>
+    <t>Bernoulli vs Binomial</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Number of successes</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Binomial distribution histogram</t>
+  </si>
+  <si>
+    <t>E(p̂) = p</t>
+  </si>
+  <si>
+    <t>VAR(p̂) = p(1-p)/n</t>
+  </si>
+  <si>
+    <t>np  (mean of a binomial distribution)</t>
+  </si>
+  <si>
+    <t>np(1-p)  (The variance of a binomial distribution)</t>
+  </si>
+  <si>
+    <t>Totals probability should be 1</t>
+  </si>
+  <si>
+    <t>Expected value  = np</t>
+  </si>
+  <si>
+    <t>Variance = np(1-p)</t>
+  </si>
+  <si>
+    <t>Should be zero</t>
+  </si>
+  <si>
+    <t>Expected value</t>
+  </si>
+  <si>
+    <t>Totals calculated per table</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0_);\(#,##0\);\-??"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +397,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +486,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +570,1761 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Binomial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11043361796528429"/>
+          <c:y val="0.10113156100886163"/>
+          <c:w val="0.87571490237433514"/>
+          <c:h val="0.77779602703036355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>BinomialHistogram!NumberOfSuccesses</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>BinomialHistogram!Probability</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>4.4408920985006262E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0880185641326534E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7408297026122455E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0454749005693884E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8818369085238373E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.411377681392878E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8715168544695189E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7684403092773653E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2252721443294377E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1236157917506944E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3176784697275239E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0782455026614457E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1517945462411479E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.329742729351608E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9991382550443863E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3731149329095942E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7462298658191884E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6034754754001852E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7005902743582045E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1859149252552186E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9798784646503123E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8825670670390452E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5961686033518873E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10795689678770874</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11227517265921703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10795689678770874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5961686033518873E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8825670670390452E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9798784646503123E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1859149252552186E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7005902743582045E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6034754754001852E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.7462298658191884E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3731149329095942E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9991382550443863E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.329742729351608E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1517945462411479E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0782455026614457E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3176784697275239E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1236157917506944E-6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2252721443294377E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7684403092773653E-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.8715168544695189E-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.411377681392878E-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8818369085238373E-9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0454749005693884E-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7408297026122455E-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0880185641326534E-12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.4408920985006262E-14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.8817841970012523E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8218-459F-B33D-A38121D9DAB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="297740480"/>
+        <c:axId val="451551791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="297740480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of successes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451551791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451551791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297740480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1441450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Brace 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931F5715-0BFD-7106-4B64-7905F0F39011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2851150" y="4006850"/>
+          <a:ext cx="152400" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3236A7B9-51E5-7EEC-780E-5BAA7FBC5099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="831850"/>
+          <a:ext cx="3232150" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>The number</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> of ways we can have for example 2 successes from 3 independent trials is similar to the number of ways we can select 2 people from a group of 3 when the order of the 2 people selected is not important,  in other words there are </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="-25000"/>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> different ways of getting r successes from n independent trials.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E255F9D-10A9-02B2-791F-66A659299750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="3632200"/>
+          <a:ext cx="3232150" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>If the probability</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> of success (ourtcome  = 1) in the above example is p, then the probability of each item above is:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>    p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>(1-p)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>or to put in more general terms,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>   p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>(1-p)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000"/>
+            <a:t>n-r</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>where r is the number of successes from n trials</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6137C4-1C63-EE10-19BD-EB48DFCFB226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="5207000"/>
+          <a:ext cx="4876800" cy="1289050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>Probabiliy of r successes from n trials =  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t>[number of options for achieving r successes from n trials] * [the probabilty of each of these options]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>r</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(1-p)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="30000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>n-r</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4012A96B-E63E-4ED3-467C-FF97319BA486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2589,1263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P25:P26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE454B88-A590-455C-93CF-A67A1DA1FA35}">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="62.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CF7D90-0354-465A-BC39-E08C22A2F09F}">
+  <dimension ref="B2:G17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" customWidth="1"/>
+    <col min="3" max="13" width="3.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA3293-B77E-47FF-8323-534F822B45C6}">
+  <dimension ref="B1:J65"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.26953125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="2:6" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="13">
+        <f>SUM(_xlfn.ANCHORARRAY(C16))</f>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="D9" s="13">
+        <f>SUM(_xlfn.ANCHORARRAY(D16))</f>
+        <v>25</v>
+      </c>
+      <c r="E9" s="13">
+        <f>SUM(_xlfn.ANCHORARRAY(E16))</f>
+        <v>12.499999999999446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
+        <f>C6*C5</f>
+        <v>25</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
+        <f>C6*C5*(1-C5)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17">
+        <f>C9-SUM(C10:C12)</f>
+        <v>-8.8817841970012523E-16</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" ref="D13:E13" si="0">D9-SUM(D10:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>-5.5422333389287814E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:B65">_xlfn.SEQUENCE(C6)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" cm="1">
+        <f t="array" ref="C16:C65">COMBIN($C$6,_xlfn.ANCHORARRAY(B16)) * $C$5^_xlfn.ANCHORARRAY(B16) * (1-$C$5)^($C$6-_xlfn.ANCHORARRAY(B16))</f>
+        <v>4.4408920985006262E-14</v>
+      </c>
+      <c r="D16" s="14" cm="1">
+        <f t="array" ref="D16:D65">_xlfn.ANCHORARRAY(B16)*_xlfn.ANCHORARRAY(C16)</f>
+        <v>4.4408920985006262E-14</v>
+      </c>
+      <c r="E16" s="11" cm="1">
+        <f t="array" ref="E16:E65">(_xlfn.ANCHORARRAY(B16)-$D$9)^2*_xlfn.ANCHORARRAY(C16)</f>
+        <v>2.5579538487363607E-11</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.0880185641326534E-12</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2.1760371282653068E-12</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5.7556182042617365E-10</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.7408297026122455E-11</v>
+      </c>
+      <c r="D18" s="14">
+        <v>5.2224891078367364E-11</v>
+      </c>
+      <c r="E18" s="11">
+        <v>8.425615760643268E-9</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2.0454749005693884E-10</v>
+      </c>
+      <c r="D19" s="14">
+        <v>8.1818996022775536E-10</v>
+      </c>
+      <c r="E19" s="11">
+        <v>9.0205443115110029E-8</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.8818369085238373E-9</v>
+      </c>
+      <c r="D20" s="14">
+        <v>9.4091845426191867E-9</v>
+      </c>
+      <c r="E20" s="11">
+        <v>7.5273476340953493E-7</v>
+      </c>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.411377681392878E-8</v>
+      </c>
+      <c r="D21" s="14">
+        <v>8.468266088357268E-8</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5.0950734298282896E-6</v>
+      </c>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>8.8715168544695189E-8</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6.2100617981286632E-7</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2.8743714608481241E-5</v>
+      </c>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4.7684403092773653E-7</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3.8147522474218923E-6</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1.3780792493811586E-4</v>
+      </c>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.2252721443294377E-6</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2.0027449298964939E-5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5.6966966894833604E-4</v>
+      </c>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.1236157917506944E-6</v>
+      </c>
+      <c r="D25" s="14">
+        <v>9.1236157917506944E-5</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.0528135531439062E-3</v>
+      </c>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3.3176784697275239E-5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3.6494463167002761E-4</v>
+      </c>
+      <c r="E26" s="11">
+        <v>6.5026498006659468E-3</v>
+      </c>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.0782455026614457E-4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1.2938946031937348E-3</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.8222348994978432E-2</v>
+      </c>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3.1517945462411479E-4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4.0973329101134919E-3</v>
+      </c>
+      <c r="E28" s="11">
+        <v>4.5385841465872531E-2</v>
+      </c>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8.329742729351608E-4</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.1661639821092251E-2</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.10078988702515446</v>
+      </c>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.9991382550443863E-3</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2.9987073825665796E-2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.19991382550443865</v>
+      </c>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4.3731149329095942E-3</v>
+      </c>
+      <c r="D31" s="14">
+        <v>6.9969838926553507E-2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.35422230956567713</v>
+      </c>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6">
+        <v>8.7462298658191884E-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.1486859077189262</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.55975871141242806</v>
+      </c>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.6034754754001852E-2</v>
+      </c>
+      <c r="D33" s="14">
+        <v>0.28862558557203333</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.78570298294609076</v>
+      </c>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2.7005902743582045E-2</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.51311215212805883</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.97221249876895366</v>
+      </c>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4.1859149252552186E-2</v>
+      </c>
+      <c r="D35" s="14">
+        <v>0.83718298505104372</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1.0464787313138046</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36" s="6">
+        <v>5.9798784646503123E-2</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1.2557744775765656</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.95678055434404996</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>22</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7.8825670670390452E-2</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1.7341647547485899</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.7094310360335141</v>
+      </c>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6">
+        <v>9.5961686033518873E-2</v>
+      </c>
+      <c r="D38" s="14">
+        <v>2.2071187787709339</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.38384674413407549</v>
+      </c>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>24</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.10795689678770874</v>
+      </c>
+      <c r="D39" s="14">
+        <v>2.5909655229050097</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.10795689678770874</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="10" t="str" cm="1">
+        <f t="array" ref="J39">_xlfn.SWITCH(
+    TRUE,
+    C5&lt;0.5, "p &lt; 0.5 therefore graph is positively skewed",
+    C5=0.5, "p = 0.5 therefore graph is symmetrical",
+    C5&gt;0.5, "p &gt; 0.5 therefore graph is negatively skewed",
+    "TBA"
+)</f>
+        <v>p = 0.5 therefore graph is symmetrical</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>25</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.11227517265921703</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2.8068793164804258</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>26</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.10795689678770874</v>
+      </c>
+      <c r="D41" s="14">
+        <v>2.8068793164804271</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.10795689678770874</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9.5961686033518873E-2</v>
+      </c>
+      <c r="D42" s="14">
+        <v>2.5909655229050097</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.38384674413407549</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>28</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7.8825670670390452E-2</v>
+      </c>
+      <c r="D43" s="14">
+        <v>2.2071187787709325</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.7094310360335141</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6">
+        <v>5.9798784646503123E-2</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1.7341647547485906</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.95678055434404996</v>
+      </c>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4.1859149252552186E-2</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1.2557744775765656</v>
+      </c>
+      <c r="E45" s="11">
+        <v>1.0464787313138046</v>
+      </c>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2.7005902743582045E-2</v>
+      </c>
+      <c r="D46" s="14">
+        <v>0.83718298505104338</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.97221249876895366</v>
+      </c>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.6034754754001852E-2</v>
+      </c>
+      <c r="D47" s="14">
+        <v>0.51311215212805927</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.78570298294609076</v>
+      </c>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48" s="6">
+        <v>8.7462298658191884E-3</v>
+      </c>
+      <c r="D48" s="14">
+        <v>0.28862558557203322</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.55975871141242806</v>
+      </c>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>34</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4.3731149329095942E-3</v>
+      </c>
+      <c r="D49" s="14">
+        <v>0.1486859077189262</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.35422230956567713</v>
+      </c>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>35</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.9991382550443863E-3</v>
+      </c>
+      <c r="D50" s="14">
+        <v>6.9969838926553521E-2</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.19991382550443865</v>
+      </c>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>36</v>
+      </c>
+      <c r="C51" s="6">
+        <v>8.329742729351608E-4</v>
+      </c>
+      <c r="D51" s="14">
+        <v>2.9987073825665789E-2</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.10078988702515446</v>
+      </c>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>37</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3.1517945462411479E-4</v>
+      </c>
+      <c r="D52" s="14">
+        <v>1.1661639821092248E-2</v>
+      </c>
+      <c r="E52" s="11">
+        <v>4.5385841465872531E-2</v>
+      </c>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>38</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1.0782455026614457E-4</v>
+      </c>
+      <c r="D53" s="14">
+        <v>4.0973329101134937E-3</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1.8222348994978432E-2</v>
+      </c>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>39</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3.3176784697275239E-5</v>
+      </c>
+      <c r="D54" s="14">
+        <v>1.2938946031937344E-3</v>
+      </c>
+      <c r="E54" s="11">
+        <v>6.5026498006659468E-3</v>
+      </c>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55" s="6">
+        <v>9.1236157917506944E-6</v>
+      </c>
+      <c r="D55" s="14">
+        <v>3.6494463167002777E-4</v>
+      </c>
+      <c r="E55" s="11">
+        <v>2.0528135531439062E-3</v>
+      </c>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>41</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2.2252721443294377E-6</v>
+      </c>
+      <c r="D56" s="14">
+        <v>9.1236157917506944E-5</v>
+      </c>
+      <c r="E56" s="11">
+        <v>5.6966966894833604E-4</v>
+      </c>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>42</v>
+      </c>
+      <c r="C57" s="6">
+        <v>4.7684403092773653E-7</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2.0027449298964935E-5</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1.3780792493811586E-4</v>
+      </c>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>43</v>
+      </c>
+      <c r="C58" s="6">
+        <v>8.8715168544695189E-8</v>
+      </c>
+      <c r="D58" s="14">
+        <v>3.8147522474218931E-6</v>
+      </c>
+      <c r="E58" s="11">
+        <v>2.8743714608481241E-5</v>
+      </c>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>44</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1.411377681392878E-8</v>
+      </c>
+      <c r="D59" s="14">
+        <v>6.2100617981286632E-7</v>
+      </c>
+      <c r="E59" s="11">
+        <v>5.0950734298282896E-6</v>
+      </c>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>45</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1.8818369085238373E-9</v>
+      </c>
+      <c r="D60" s="14">
+        <v>8.468266088357268E-8</v>
+      </c>
+      <c r="E60" s="11">
+        <v>7.5273476340953493E-7</v>
+      </c>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>46</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2.0454749005693884E-10</v>
+      </c>
+      <c r="D61" s="14">
+        <v>9.4091845426191867E-9</v>
+      </c>
+      <c r="E61" s="11">
+        <v>9.0205443115110029E-8</v>
+      </c>
+      <c r="F61" s="19"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>47</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1.7408297026122455E-11</v>
+      </c>
+      <c r="D62" s="14">
+        <v>8.1818996022775536E-10</v>
+      </c>
+      <c r="E62" s="11">
+        <v>8.425615760643268E-9</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>48</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1.0880185641326534E-12</v>
+      </c>
+      <c r="D63" s="14">
+        <v>5.2224891078367364E-11</v>
+      </c>
+      <c r="E63" s="11">
+        <v>5.7556182042617365E-10</v>
+      </c>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>49</v>
+      </c>
+      <c r="C64" s="6">
+        <v>4.4408920985006262E-14</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2.1760371282653068E-12</v>
+      </c>
+      <c r="E64" s="11">
+        <v>2.5579538487363607E-11</v>
+      </c>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>50</v>
+      </c>
+      <c r="C65" s="6">
+        <v>8.8817841970012523E-16</v>
+      </c>
+      <c r="D65" s="14">
+        <v>4.4408920985006262E-14</v>
+      </c>
+      <c r="E65" s="11">
+        <v>5.5511151231257827E-13</v>
+      </c>
+      <c r="F65" s="19"/>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{780A1BAA-64DA-4840-B8AE-50D5F17909CC}">
+      <formula1>"0.1,0.2,0.3,0.4,0.5,0.6,0.7,0.8,0.9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{6E68E497-8887-48DF-AB75-901EB2BA58A6}">
+      <formula1>"10,20,25,30,40,50"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>